--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44298</v>
+        <v>44400</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44300</v>
+        <v>44298</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N9" t="n">
         <v>22000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44389</v>
+        <v>44300</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44292</v>
+        <v>44389</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44307</v>
+        <v>44294</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44301</v>
+        <v>44307</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
         <v>22000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44382</v>
+        <v>44301</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44376</v>
+        <v>44382</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1749,6 +1749,86 @@
         <v>1000</v>
       </c>
       <c r="T17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>38</v>
+      </c>
+      <c r="N18" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O18" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T18" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44291</v>
+        <v>44307</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44406</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44403</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44385</v>
+        <v>44389</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44413</v>
+        <v>44382</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44377</v>
+        <v>44298</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44400</v>
+        <v>44445</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44298</v>
+        <v>44403</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44300</v>
+        <v>44413</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1167,13 +1167,13 @@
         <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44389</v>
+        <v>44406</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44292</v>
+        <v>44385</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44294</v>
+        <v>44300</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44307</v>
+        <v>44291</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44382</v>
+        <v>44294</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1829,6 +1829,86 @@
         <v>1000</v>
       </c>
       <c r="T18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>45</v>
+      </c>
+      <c r="N19" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O19" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T19" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44400</v>
+        <v>44448</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,31 +1884,111 @@
         </is>
       </c>
       <c r="M19" t="n">
+        <v>30</v>
+      </c>
+      <c r="N19" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O19" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>$/malla 20 unidades</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>1100</v>
+      </c>
+      <c r="T19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>100108</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Tropicales y subtropicales</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>100108007</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Coco</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>45</v>
       </c>
-      <c r="N19" t="n">
-        <v>20000</v>
-      </c>
-      <c r="O19" t="n">
-        <v>20000</v>
-      </c>
-      <c r="P19" t="n">
-        <v>20000</v>
-      </c>
-      <c r="Q19" t="inlineStr">
+      <c r="N20" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>$/malla 20 unidades</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="S19" t="n">
+      <c r="S20" t="n">
         <v>1000</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T20" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44307</v>
+        <v>44413</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44382</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44294</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44389</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -767,13 +767,13 @@
         <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44298</v>
+        <v>44377</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44403</v>
+        <v>44298</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44413</v>
+        <v>44406</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44406</v>
+        <v>44385</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44385</v>
+        <v>44300</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44292</v>
+        <v>44307</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1407,13 +1407,13 @@
         <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44300</v>
+        <v>44400</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1487,13 +1487,13 @@
         <v>45</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44291</v>
+        <v>44448</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44301</v>
+        <v>44389</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44376</v>
+        <v>44291</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44448</v>
+        <v>44376</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44400</v>
+        <v>44292</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44413</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44382</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44294</v>
+        <v>44406</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44376</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44403</v>
+        <v>44382</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44377</v>
+        <v>44294</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -927,13 +927,13 @@
         <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44445</v>
+        <v>44403</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44298</v>
+        <v>44413</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44406</v>
+        <v>44291</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44385</v>
+        <v>44292</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44300</v>
+        <v>44445</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1327,13 +1327,13 @@
         <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44307</v>
+        <v>44300</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
         <v>22000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44400</v>
+        <v>44448</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44448</v>
+        <v>44385</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44389</v>
+        <v>44377</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
         <v>20000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44301</v>
+        <v>44307</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
         <v>22000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44291</v>
+        <v>44301</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44376</v>
+        <v>44298</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44292</v>
+        <v>44389</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44406</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44413</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44406</v>
+        <v>44448</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44376</v>
+        <v>44300</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44294</v>
+        <v>44403</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44403</v>
+        <v>44298</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44413</v>
+        <v>44377</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44291</v>
+        <v>44305</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
         <v>25000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44445</v>
+        <v>44294</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44300</v>
+        <v>44385</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44448</v>
+        <v>44376</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44385</v>
+        <v>44389</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44377</v>
+        <v>44292</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44307</v>
+        <v>44400</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44298</v>
+        <v>44301</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="N19" t="n">
         <v>22000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44389</v>
+        <v>44307</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44406</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44448</v>
+        <v>44385</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44300</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44382</v>
+        <v>44298</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44403</v>
+        <v>44291</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44298</v>
+        <v>44292</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44377</v>
+        <v>44300</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44305</v>
+        <v>44445</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44291</v>
+        <v>44406</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44294</v>
+        <v>44403</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44385</v>
+        <v>44376</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44376</v>
+        <v>44448</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44389</v>
+        <v>44301</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44292</v>
+        <v>44382</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44400</v>
+        <v>44305</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44445</v>
+        <v>44389</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44301</v>
+        <v>44307</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
         <v>22000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44307</v>
+        <v>44400</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44294</v>
+        <v>44413</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44413</v>
+        <v>44301</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44385</v>
+        <v>44382</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44448</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44298</v>
+        <v>44294</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44291</v>
+        <v>44385</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44292</v>
+        <v>44389</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44300</v>
+        <v>44291</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44445</v>
+        <v>44376</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44406</v>
+        <v>44305</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1247,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44403</v>
+        <v>44292</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44376</v>
+        <v>44400</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44448</v>
+        <v>44406</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44301</v>
+        <v>44403</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44382</v>
+        <v>44298</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44305</v>
+        <v>44445</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44389</v>
+        <v>44377</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44307</v>
+        <v>44300</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
         <v>22000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44413</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44301</v>
+        <v>44307</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
         <v>22000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44301</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44448</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
         <v>22000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44294</v>
+        <v>44377</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -847,13 +847,13 @@
         <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44385</v>
+        <v>44445</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44389</v>
+        <v>44448</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44291</v>
+        <v>44406</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44300</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44305</v>
+        <v>44382</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44292</v>
+        <v>44294</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
         <v>25000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44400</v>
+        <v>44376</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44406</v>
+        <v>44292</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44298</v>
+        <v>44291</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44445</v>
+        <v>44389</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44377</v>
+        <v>44385</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44300</v>
+        <v>44413</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1887,13 +1887,13 @@
         <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44307</v>
+        <v>44298</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N20" t="n">
         <v>22000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44307</v>
+        <v>44385</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44301</v>
+        <v>44382</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44376</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44406</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44445</v>
+        <v>44403</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44448</v>
+        <v>44291</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44406</v>
+        <v>44307</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44382</v>
+        <v>44400</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
         <v>25000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44376</v>
+        <v>44413</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44292</v>
+        <v>44389</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44403</v>
+        <v>44448</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44389</v>
+        <v>44294</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44385</v>
+        <v>44305</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44413</v>
+        <v>44445</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44298</v>
+        <v>44301</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="N20" t="n">
         <v>22000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44389</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44385</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44406</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44376</v>
+        <v>44307</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44406</v>
+        <v>44291</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44403</v>
+        <v>44292</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44291</v>
+        <v>44448</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44307</v>
+        <v>44301</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N9" t="n">
         <v>22000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44300</v>
+        <v>44294</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44400</v>
+        <v>44298</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44292</v>
+        <v>44305</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44389</v>
+        <v>44376</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44448</v>
+        <v>44400</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44298</v>
+        <v>44403</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44294</v>
+        <v>44445</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44305</v>
+        <v>44382</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44445</v>
+        <v>44300</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1887,13 +1887,13 @@
         <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44301</v>
+        <v>44385</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44448</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44406</v>
+        <v>44376</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44292</v>
+        <v>44377</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44448</v>
+        <v>44292</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1007,13 +1007,13 @@
         <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44301</v>
+        <v>44406</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44298</v>
+        <v>44382</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44305</v>
+        <v>44291</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44413</v>
+        <v>44300</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1407,13 +1407,13 @@
         <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44376</v>
+        <v>44400</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44400</v>
+        <v>44403</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44403</v>
+        <v>44445</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N16" t="n">
         <v>20000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44445</v>
+        <v>44294</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44382</v>
+        <v>44301</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44300</v>
+        <v>44385</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44385</v>
+        <v>44413</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44389</v>
+        <v>44307</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44448</v>
+        <v>44300</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
         <v>22000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44376</v>
+        <v>44400</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44307</v>
+        <v>44448</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44298</v>
+        <v>44389</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44377</v>
+        <v>44301</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44292</v>
+        <v>44385</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44406</v>
+        <v>44403</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44382</v>
+        <v>44413</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44300</v>
+        <v>44406</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44400</v>
+        <v>44298</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44403</v>
+        <v>44294</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44445</v>
+        <v>44305</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44294</v>
+        <v>44382</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44385</v>
+        <v>44377</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44413</v>
+        <v>44376</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44307</v>
+        <v>44376</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44300</v>
+        <v>44294</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44400</v>
+        <v>44448</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44448</v>
+        <v>44413</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44389</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44301</v>
+        <v>44291</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44385</v>
+        <v>44377</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44403</v>
+        <v>44382</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44292</v>
+        <v>44300</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44413</v>
+        <v>44445</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44406</v>
+        <v>44403</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44298</v>
+        <v>44292</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44305</v>
+        <v>44385</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44382</v>
+        <v>44301</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44445</v>
+        <v>44406</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44377</v>
+        <v>44389</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44376</v>
+        <v>44307</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44376</v>
+        <v>44389</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44448</v>
+        <v>44403</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44413</v>
+        <v>44298</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -847,13 +847,13 @@
         <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44377</v>
+        <v>44292</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44300</v>
+        <v>44385</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44445</v>
+        <v>44294</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44298</v>
+        <v>44307</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
         <v>22000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44403</v>
+        <v>44400</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44292</v>
+        <v>44377</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44305</v>
+        <v>44291</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44385</v>
+        <v>44376</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N16" t="n">
         <v>20000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44301</v>
+        <v>44406</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44406</v>
+        <v>44445</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44389</v>
+        <v>44301</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44307</v>
+        <v>44448</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44389</v>
+        <v>44413</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44445</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44403</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44298</v>
+        <v>44400</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44413</v>
+        <v>44301</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44292</v>
+        <v>44406</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44382</v>
+        <v>44376</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44385</v>
+        <v>44292</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44294</v>
+        <v>44298</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44307</v>
+        <v>44385</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44377</v>
+        <v>44291</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44291</v>
+        <v>44448</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44376</v>
+        <v>44389</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
         <v>20000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44406</v>
+        <v>44294</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44445</v>
+        <v>44382</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44301</v>
+        <v>44403</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44448</v>
+        <v>44305</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
         <v>22000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44413</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44445</v>
+        <v>44413</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44377</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44400</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44300</v>
+        <v>44292</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44301</v>
+        <v>44406</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44406</v>
+        <v>44385</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44376</v>
+        <v>44403</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44292</v>
+        <v>44307</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1167,13 +1167,13 @@
         <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44298</v>
+        <v>44300</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
         <v>22000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44385</v>
+        <v>44298</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44307</v>
+        <v>44389</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44291</v>
+        <v>44301</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44448</v>
+        <v>44400</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44389</v>
+        <v>44382</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N16" t="n">
         <v>20000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44294</v>
+        <v>44445</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44382</v>
+        <v>44377</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44403</v>
+        <v>44448</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44305</v>
+        <v>44376</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44413</v>
+        <v>44307</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44382</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44406</v>
+        <v>44389</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44385</v>
+        <v>44298</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44403</v>
+        <v>44294</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44307</v>
+        <v>44445</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44300</v>
+        <v>44385</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44298</v>
+        <v>44400</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44389</v>
+        <v>44413</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44301</v>
+        <v>44406</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44400</v>
+        <v>44448</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44382</v>
+        <v>44292</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44445</v>
+        <v>44300</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1727,13 +1727,13 @@
         <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44377</v>
+        <v>44291</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44448</v>
+        <v>44403</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44301</v>
+        <v>44292</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44307</v>
+        <v>44403</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44400</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44382</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44376</v>
+        <v>44291</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44389</v>
+        <v>44445</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44294</v>
+        <v>44307</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44445</v>
+        <v>44301</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44385</v>
+        <v>44376</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44400</v>
+        <v>44448</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44413</v>
+        <v>44382</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44406</v>
+        <v>44413</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44448</v>
+        <v>44406</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44292</v>
+        <v>44294</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
         <v>25000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44300</v>
+        <v>44389</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44291</v>
+        <v>44305</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44403</v>
+        <v>44385</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44377</v>
+        <v>44300</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44292</v>
+        <v>44300</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44403</v>
+        <v>44292</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44400</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44301</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44291</v>
+        <v>44445</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44445</v>
+        <v>44376</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44298</v>
+        <v>44403</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44307</v>
+        <v>44406</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44301</v>
+        <v>44413</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44376</v>
+        <v>44448</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44448</v>
+        <v>44298</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N12" t="n">
         <v>22000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44382</v>
+        <v>44400</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44413</v>
+        <v>44377</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44406</v>
+        <v>44389</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44389</v>
+        <v>44382</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44305</v>
+        <v>44385</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44385</v>
+        <v>44291</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44300</v>
+        <v>44307</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
         <v>22000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44300</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -527,13 +527,13 @@
         <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44292</v>
+        <v>44413</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44301</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
         <v>22000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44445</v>
+        <v>44403</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44376</v>
+        <v>44307</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44403</v>
+        <v>44377</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44406</v>
+        <v>44301</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44448</v>
+        <v>44292</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1247,13 +1247,13 @@
         <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44298</v>
+        <v>44294</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1407,13 +1407,13 @@
         <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44377</v>
+        <v>44298</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44389</v>
+        <v>44382</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44294</v>
+        <v>44389</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44382</v>
+        <v>44445</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44291</v>
+        <v>44376</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44307</v>
+        <v>44406</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -527,13 +527,13 @@
         <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44413</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44406</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -767,13 +767,13 @@
         <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44403</v>
+        <v>44385</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44307</v>
+        <v>44294</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44377</v>
+        <v>44400</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44301</v>
+        <v>44448</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
         <v>22000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44385</v>
+        <v>44307</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44292</v>
+        <v>44445</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44294</v>
+        <v>44291</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
         <v>25000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44300</v>
+        <v>44376</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44298</v>
+        <v>44403</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44389</v>
+        <v>44292</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44445</v>
+        <v>44389</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44448</v>
+        <v>44301</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N18" t="n">
         <v>22000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44376</v>
+        <v>44298</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44406</v>
+        <v>44377</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44300</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -527,13 +527,13 @@
         <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44301</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N3" t="n">
         <v>22000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44413</v>
+        <v>44406</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44406</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -767,13 +767,13 @@
         <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44385</v>
+        <v>44389</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44294</v>
+        <v>44445</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44400</v>
+        <v>44294</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44448</v>
+        <v>44385</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44307</v>
+        <v>44292</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1167,13 +1167,13 @@
         <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44445</v>
+        <v>44403</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44291</v>
+        <v>44377</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44376</v>
+        <v>44307</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44403</v>
+        <v>44298</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44382</v>
+        <v>44300</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44292</v>
+        <v>44448</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1647,13 +1647,13 @@
         <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44389</v>
+        <v>44291</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44301</v>
+        <v>44376</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1807,13 +1807,13 @@
         <v>38</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44298</v>
+        <v>44413</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44377</v>
+        <v>44382</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44298</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44406</v>
+        <v>44307</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44445</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44389</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44445</v>
+        <v>44389</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44294</v>
+        <v>44291</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
         <v>25000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44385</v>
+        <v>44294</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44292</v>
+        <v>44413</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44403</v>
+        <v>44305</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44307</v>
+        <v>44300</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
         <v>22000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44298</v>
+        <v>44403</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44300</v>
+        <v>44448</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
         <v>22000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44448</v>
+        <v>44406</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44291</v>
+        <v>44382</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44382</v>
+        <v>44292</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44298</v>
+        <v>44292</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44301</v>
+        <v>44298</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N3" t="n">
         <v>22000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44307</v>
+        <v>44305</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
         <v>22000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44389</v>
+        <v>44413</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44291</v>
+        <v>44301</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44294</v>
+        <v>44291</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
         <v>25000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44413</v>
+        <v>44376</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44305</v>
+        <v>44403</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44377</v>
+        <v>44448</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44300</v>
+        <v>44385</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44403</v>
+        <v>44389</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44448</v>
+        <v>44294</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44406</v>
+        <v>44307</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44382</v>
+        <v>44300</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44385</v>
+        <v>44382</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44292</v>
+        <v>44406</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44292</v>
+        <v>44307</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -527,13 +527,13 @@
         <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44298</v>
+        <v>44292</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44305</v>
+        <v>44377</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44445</v>
+        <v>44403</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44376</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44413</v>
+        <v>44389</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44301</v>
+        <v>44382</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44291</v>
+        <v>44448</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44300</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44403</v>
+        <v>44445</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44448</v>
+        <v>44301</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N12" t="n">
         <v>22000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44385</v>
+        <v>44305</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44389</v>
+        <v>44385</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44294</v>
+        <v>44406</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44307</v>
+        <v>44294</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44300</v>
+        <v>44413</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1727,13 +1727,13 @@
         <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44377</v>
+        <v>44298</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44382</v>
+        <v>44291</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44406</v>
+        <v>44400</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44307</v>
+        <v>44445</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44292</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44377</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44403</v>
+        <v>44382</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44376</v>
+        <v>44292</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44389</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44382</v>
+        <v>44413</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44448</v>
+        <v>44406</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44300</v>
+        <v>44389</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44445</v>
+        <v>44307</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44305</v>
+        <v>44403</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44406</v>
+        <v>44377</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44413</v>
+        <v>44300</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1727,13 +1727,13 @@
         <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44291</v>
+        <v>44448</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44400</v>
+        <v>44376</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44445</v>
+        <v>44413</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>44294</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
         <v>25000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44382</v>
+        <v>44300</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44292</v>
+        <v>44389</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44298</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44406</v>
+        <v>44403</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44389</v>
+        <v>44445</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44307</v>
+        <v>44301</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N11" t="n">
         <v>22000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44301</v>
+        <v>44448</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
         <v>22000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44403</v>
+        <v>44406</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44385</v>
+        <v>44292</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44377</v>
+        <v>44400</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44294</v>
+        <v>44376</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44300</v>
+        <v>44305</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
         <v>22000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44298</v>
+        <v>44382</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44448</v>
+        <v>44307</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44376</v>
+        <v>44291</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44413</v>
+        <v>44307</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44389</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44300</v>
+        <v>44400</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -767,13 +767,13 @@
         <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44389</v>
+        <v>44377</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44298</v>
+        <v>44291</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44385</v>
+        <v>44292</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44403</v>
+        <v>44448</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44301</v>
+        <v>44300</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
         <v>22000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44448</v>
+        <v>44305</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
         <v>22000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44292</v>
+        <v>44301</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44400</v>
+        <v>44298</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44376</v>
+        <v>44413</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N16" t="n">
         <v>20000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44305</v>
+        <v>44385</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44307</v>
+        <v>44382</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44291</v>
+        <v>44376</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44307</v>
+        <v>44413</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44389</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -767,13 +767,13 @@
         <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44389</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44292</v>
+        <v>44385</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44448</v>
+        <v>44403</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N11" t="n">
         <v>22000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44305</v>
+        <v>44448</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
         <v>22000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44301</v>
+        <v>44292</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44298</v>
+        <v>44400</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44413</v>
+        <v>44376</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N16" t="n">
         <v>20000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44385</v>
+        <v>44305</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44403</v>
+        <v>44382</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44382</v>
+        <v>44307</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44376</v>
+        <v>44291</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44307</v>
+        <v>44298</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N2" t="n">
         <v>22000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44389</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -607,13 +607,13 @@
         <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44294</v>
+        <v>44382</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44400</v>
+        <v>44406</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44389</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44291</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44445</v>
+        <v>44301</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44300</v>
+        <v>44377</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44406</v>
+        <v>44413</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44301</v>
+        <v>44294</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44298</v>
+        <v>44403</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N16" t="n">
         <v>20000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44385</v>
+        <v>44445</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44403</v>
+        <v>44307</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44382</v>
+        <v>44291</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44376</v>
+        <v>44300</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44298</v>
+        <v>44448</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
         <v>22000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44294</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44406</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44406</v>
+        <v>44298</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44389</v>
+        <v>44376</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44413</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44448</v>
+        <v>44301</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N9" t="n">
         <v>22000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44377</v>
+        <v>44400</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44292</v>
+        <v>44305</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44413</v>
+        <v>44300</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1407,13 +1407,13 @@
         <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44294</v>
+        <v>44307</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44385</v>
+        <v>44382</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N16" t="n">
         <v>20000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44445</v>
+        <v>44385</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44307</v>
+        <v>44292</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1807,13 +1807,13 @@
         <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44300</v>
+        <v>44389</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44448</v>
+        <v>44307</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44406</v>
+        <v>44445</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44298</v>
+        <v>44389</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44376</v>
+        <v>44385</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44413</v>
+        <v>44382</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44377</v>
+        <v>44300</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44301</v>
+        <v>44298</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N9" t="n">
         <v>22000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44445</v>
+        <v>44448</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44400</v>
+        <v>44294</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44300</v>
+        <v>44377</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44307</v>
+        <v>44400</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44403</v>
+        <v>44292</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
         <v>20000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
         <v>25000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44291</v>
+        <v>44376</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44389</v>
+        <v>44413</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44307</v>
+        <v>44301</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N2" t="n">
         <v>22000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44301</v>
+        <v>44377</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44445</v>
+        <v>44298</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44389</v>
+        <v>44300</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44385</v>
+        <v>44403</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44300</v>
+        <v>44385</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44298</v>
+        <v>44406</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44305</v>
+        <v>44445</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44377</v>
+        <v>44307</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44403</v>
+        <v>44294</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44406</v>
+        <v>44389</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44376</v>
+        <v>44292</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44301</v>
+        <v>44298</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N2" t="n">
         <v>22000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44377</v>
+        <v>44305</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44298</v>
+        <v>44307</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
         <v>22000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44300</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44403</v>
+        <v>44294</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44385</v>
+        <v>44389</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44406</v>
+        <v>44292</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44448</v>
+        <v>44406</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44305</v>
+        <v>44291</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44445</v>
+        <v>44376</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44307</v>
+        <v>44300</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
         <v>22000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44400</v>
+        <v>44301</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44376</v>
+        <v>44413</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44294</v>
+        <v>44382</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44389</v>
+        <v>44400</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44291</v>
+        <v>44445</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44292</v>
+        <v>44385</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44413</v>
+        <v>44448</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44298</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44305</v>
+        <v>44400</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44294</v>
+        <v>44403</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44403</v>
+        <v>44448</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44389</v>
+        <v>44377</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
         <v>25000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44291</v>
+        <v>44385</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44376</v>
+        <v>44300</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44300</v>
+        <v>44305</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
         <v>22000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44301</v>
+        <v>44389</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44413</v>
+        <v>44445</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44400</v>
+        <v>44376</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44445</v>
+        <v>44292</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44385</v>
+        <v>44301</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44448</v>
+        <v>44298</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N20" t="n">
         <v>22000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44294</v>
+        <v>44298</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44400</v>
+        <v>44385</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44413</v>
+        <v>44305</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44403</v>
+        <v>44301</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44448</v>
+        <v>44382</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44291</v>
+        <v>44403</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44406</v>
+        <v>44376</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44300</v>
+        <v>44294</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44305</v>
+        <v>44400</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44389</v>
+        <v>44291</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44445</v>
+        <v>44377</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44382</v>
+        <v>44300</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44376</v>
+        <v>44406</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44292</v>
+        <v>44445</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44301</v>
+        <v>44389</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44298</v>
+        <v>44292</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44298</v>
+        <v>44292</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44385</v>
+        <v>44389</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44307</v>
+        <v>44406</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44305</v>
+        <v>44413</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44301</v>
+        <v>44377</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44382</v>
+        <v>44307</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44413</v>
+        <v>44294</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44403</v>
+        <v>44298</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44305</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44448</v>
+        <v>44400</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44294</v>
+        <v>44376</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44400</v>
+        <v>44445</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44291</v>
+        <v>44448</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44377</v>
+        <v>44300</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44300</v>
+        <v>44385</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44406</v>
+        <v>44382</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44445</v>
+        <v>44291</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44389</v>
+        <v>44403</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44292</v>
+        <v>44301</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44292</v>
+        <v>44382</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44406</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44413</v>
+        <v>44292</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44376</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44307</v>
+        <v>44294</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44294</v>
+        <v>44445</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44298</v>
+        <v>44300</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
         <v>22000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44305</v>
+        <v>44301</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
         <v>22000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44400</v>
+        <v>44305</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44376</v>
+        <v>44448</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44445</v>
+        <v>44307</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44448</v>
+        <v>44298</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N14" t="n">
         <v>22000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44300</v>
+        <v>44400</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1567,13 +1567,13 @@
         <v>45</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44385</v>
+        <v>44413</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N16" t="n">
         <v>20000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44382</v>
+        <v>44385</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44291</v>
+        <v>44406</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44403</v>
+        <v>44377</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44301</v>
+        <v>44403</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44382</v>
+        <v>44292</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>44406</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44292</v>
+        <v>44413</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44294</v>
+        <v>44307</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44445</v>
+        <v>44294</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44300</v>
+        <v>44298</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N9" t="n">
         <v>22000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44301</v>
+        <v>44305</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
         <v>22000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44305</v>
+        <v>44400</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44448</v>
+        <v>44376</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44307</v>
+        <v>44445</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44298</v>
+        <v>44448</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
         <v>22000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1567,13 +1567,13 @@
         <v>45</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N16" t="n">
         <v>20000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44385</v>
+        <v>44382</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44406</v>
+        <v>44291</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44377</v>
+        <v>44403</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44403</v>
+        <v>44301</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44382</v>
+        <v>44292</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44389</v>
+        <v>44300</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44292</v>
+        <v>44294</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
         <v>25000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44376</v>
+        <v>44406</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44300</v>
+        <v>44376</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44301</v>
+        <v>44291</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44305</v>
+        <v>44382</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44448</v>
+        <v>44403</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44307</v>
+        <v>44448</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44298</v>
+        <v>44377</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44400</v>
+        <v>44389</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44413</v>
+        <v>44298</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44385</v>
+        <v>44307</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44406</v>
+        <v>44385</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44377</v>
+        <v>44400</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44403</v>
+        <v>44301</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44292</v>
+        <v>44382</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44300</v>
+        <v>44294</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44413</v>
+        <v>44300</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -687,13 +687,13 @@
         <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44294</v>
+        <v>44448</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44406</v>
+        <v>44445</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44406</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -927,13 +927,13 @@
         <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44445</v>
+        <v>44377</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44376</v>
+        <v>44385</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44382</v>
+        <v>44376</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44403</v>
+        <v>44400</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44448</v>
+        <v>44389</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44377</v>
+        <v>44298</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44389</v>
+        <v>44292</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44298</v>
+        <v>44403</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44307</v>
+        <v>44301</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N17" t="n">
         <v>22000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44385</v>
+        <v>44307</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44400</v>
+        <v>44305</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44301</v>
+        <v>44291</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44382</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44294</v>
+        <v>44382</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44300</v>
+        <v>44385</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44448</v>
+        <v>44291</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44445</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44406</v>
+        <v>44294</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44385</v>
+        <v>44403</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44413</v>
+        <v>44445</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44376</v>
+        <v>44448</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44400</v>
+        <v>44389</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44389</v>
+        <v>44300</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44298</v>
+        <v>44406</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44292</v>
+        <v>44301</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44403</v>
+        <v>44298</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44301</v>
+        <v>44292</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44305</v>
+        <v>44413</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44291</v>
+        <v>44376</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="N20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44382</v>
+        <v>44389</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44385</v>
+        <v>44294</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44445</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44377</v>
+        <v>44385</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44403</v>
+        <v>44307</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44445</v>
+        <v>44376</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44448</v>
+        <v>44400</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44389</v>
+        <v>44448</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44300</v>
+        <v>44403</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44301</v>
+        <v>44298</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N15" t="n">
         <v>22000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44298</v>
+        <v>44291</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44292</v>
+        <v>44382</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44307</v>
+        <v>44292</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1807,13 +1807,13 @@
         <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44413</v>
+        <v>44305</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44376</v>
+        <v>44300</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44389</v>
+        <v>44382</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44294</v>
+        <v>44385</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44413</v>
+        <v>44291</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44445</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44301</v>
+        <v>44294</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44385</v>
+        <v>44377</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44307</v>
+        <v>44403</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44445</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44400</v>
+        <v>44448</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44448</v>
+        <v>44389</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44403</v>
+        <v>44300</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44298</v>
+        <v>44301</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="N15" t="n">
         <v>22000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44382</v>
+        <v>44292</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44292</v>
+        <v>44307</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1807,13 +1807,13 @@
         <v>30</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44305</v>
+        <v>44413</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44300</v>
+        <v>44376</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44389</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44389</v>
+        <v>44294</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44294</v>
+        <v>44400</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44413</v>
+        <v>44307</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44301</v>
+        <v>44377</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44385</v>
+        <v>44292</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44307</v>
+        <v>44406</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44305</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1247,13 +1247,13 @@
         <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44448</v>
+        <v>44403</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44403</v>
+        <v>44382</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44406</v>
+        <v>44298</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44298</v>
+        <v>44448</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
         <v>22000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44291</v>
+        <v>44376</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44382</v>
+        <v>44301</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
         <v>25000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44305</v>
+        <v>44413</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44300</v>
+        <v>44385</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44389</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44294</v>
+        <v>44389</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44400</v>
+        <v>44294</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44307</v>
+        <v>44413</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44377</v>
+        <v>44301</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44292</v>
+        <v>44385</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44406</v>
+        <v>44307</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44305</v>
+        <v>44376</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44300</v>
+        <v>44400</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1247,13 +1247,13 @@
         <v>45</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44403</v>
+        <v>44448</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44298</v>
+        <v>44406</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44448</v>
+        <v>44298</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N15" t="n">
         <v>22000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44376</v>
+        <v>44291</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44301</v>
+        <v>44382</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N18" t="n">
         <v>25000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44413</v>
+        <v>44305</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44385</v>
+        <v>44300</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44389</v>
+        <v>44307</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44294</v>
+        <v>44298</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44400</v>
+        <v>44403</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44307</v>
+        <v>44448</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44445</v>
+        <v>44376</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44377</v>
+        <v>44406</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44292</v>
+        <v>44445</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44406</v>
+        <v>44305</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1087,13 +1087,13 @@
         <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44305</v>
+        <v>44389</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1167,13 +1167,13 @@
         <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44300</v>
+        <v>44294</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44403</v>
+        <v>44301</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44382</v>
+        <v>44292</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44298</v>
+        <v>44413</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44448</v>
+        <v>44385</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44376</v>
+        <v>44291</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44301</v>
+        <v>44377</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44291</v>
+        <v>44400</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44413</v>
+        <v>44300</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1887,13 +1887,13 @@
         <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44385</v>
+        <v>44382</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44307</v>
+        <v>44385</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44298</v>
+        <v>44292</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44403</v>
+        <v>44301</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44448</v>
+        <v>44307</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44376</v>
+        <v>44294</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44406</v>
+        <v>44305</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -927,13 +927,13 @@
         <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44445</v>
+        <v>44376</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44305</v>
+        <v>44448</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
         <v>22000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44389</v>
+        <v>44413</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44294</v>
+        <v>44403</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44301</v>
+        <v>44291</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44292</v>
+        <v>44445</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44413</v>
+        <v>44400</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44385</v>
+        <v>44298</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44291</v>
+        <v>44300</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44377</v>
+        <v>44389</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44400</v>
+        <v>44382</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44300</v>
+        <v>44406</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44382</v>
+        <v>44377</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44385</v>
+        <v>44377</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44292</v>
+        <v>44406</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44301</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44307</v>
+        <v>44301</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N5" t="n">
         <v>22000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44294</v>
+        <v>44298</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N6" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44305</v>
+        <v>44385</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44376</v>
+        <v>44445</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44448</v>
+        <v>44305</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N9" t="n">
         <v>22000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44413</v>
+        <v>44376</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44403</v>
+        <v>44413</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44291</v>
+        <v>44389</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44445</v>
+        <v>44400</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44400</v>
+        <v>44292</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44298</v>
+        <v>44300</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N15" t="n">
         <v>22000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44300</v>
+        <v>44448</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
         <v>22000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44389</v>
+        <v>44307</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44382</v>
+        <v>44403</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44406</v>
+        <v>44294</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44377</v>
+        <v>44382</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44377</v>
+        <v>44406</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44406</v>
+        <v>44292</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>44294</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N4" t="n">
         <v>25000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44298</v>
+        <v>44300</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
         <v>22000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44385</v>
+        <v>44291</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44445</v>
+        <v>44385</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44305</v>
+        <v>44389</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1087,13 +1087,13 @@
         <v>20</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44403</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44413</v>
+        <v>44377</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44389</v>
+        <v>44382</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44400</v>
+        <v>44445</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44300</v>
+        <v>44298</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N15" t="n">
         <v>22000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44448</v>
+        <v>44307</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44307</v>
+        <v>44305</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N17" t="n">
         <v>22000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44403</v>
+        <v>44413</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44294</v>
+        <v>44400</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44382</v>
+        <v>44448</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44406</v>
+        <v>44403</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44292</v>
+        <v>44448</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -607,13 +607,13 @@
         <v>30</v>
       </c>
       <c r="N3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44294</v>
+        <v>44406</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44301</v>
+        <v>44291</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44300</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -847,13 +847,13 @@
         <v>45</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44291</v>
+        <v>44307</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44385</v>
+        <v>44298</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44389</v>
+        <v>44300</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44403</v>
+        <v>44301</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44382</v>
+        <v>44292</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44445</v>
+        <v>44413</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44376</v>
+        <v>44382</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
         <v>22000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44307</v>
+        <v>44445</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44305</v>
+        <v>44376</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44413</v>
+        <v>44389</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44400</v>
+        <v>44294</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44448</v>
+        <v>44385</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44403</v>
+        <v>44305</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44448</v>
+        <v>44298</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N3" t="n">
         <v>22000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44406</v>
+        <v>44382</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44291</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44403</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44307</v>
+        <v>44445</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44298</v>
+        <v>44389</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44300</v>
+        <v>44385</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44301</v>
+        <v>44448</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N10" t="n">
         <v>22000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44377</v>
+        <v>44307</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44292</v>
+        <v>44406</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44413</v>
+        <v>44294</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44382</v>
+        <v>44413</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44305</v>
+        <v>44291</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44445</v>
+        <v>44292</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44376</v>
+        <v>44300</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44389</v>
+        <v>44301</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44294</v>
+        <v>44400</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44385</v>
+        <v>44376</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44403</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44298</v>
+        <v>44448</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="N3" t="n">
         <v>22000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44406</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44291</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44403</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44445</v>
+        <v>44307</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44389</v>
+        <v>44298</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44385</v>
+        <v>44300</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44448</v>
+        <v>44301</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
         <v>22000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44406</v>
+        <v>44292</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44294</v>
+        <v>44413</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44413</v>
+        <v>44382</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44291</v>
+        <v>44305</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44292</v>
+        <v>44445</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44300</v>
+        <v>44376</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44301</v>
+        <v>44389</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44400</v>
+        <v>44294</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44376</v>
+        <v>44385</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44305</v>
+        <v>44445</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44298</v>
+        <v>44389</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44382</v>
+        <v>44376</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44291</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44403</v>
+        <v>44305</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44445</v>
+        <v>44307</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44389</v>
+        <v>44448</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44385</v>
+        <v>44413</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44448</v>
+        <v>44292</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1167,13 +1167,13 @@
         <v>30</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44307</v>
+        <v>44406</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44406</v>
+        <v>44403</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44294</v>
+        <v>44400</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44413</v>
+        <v>44294</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44291</v>
+        <v>44301</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1250</v>
+        <v>1100</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44292</v>
+        <v>44377</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44300</v>
+        <v>44382</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44301</v>
+        <v>44385</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1887,13 +1887,13 @@
         <v>45</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44376</v>
+        <v>44298</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Coco.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44445</v>
+        <v>44385</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44376</v>
+        <v>44448</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44291</v>
+        <v>44400</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44305</v>
+        <v>44294</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O6" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44307</v>
+        <v>44291</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1100</v>
+        <v>1250</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44448</v>
+        <v>44382</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44413</v>
+        <v>44292</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44292</v>
+        <v>44406</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44406</v>
+        <v>44376</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44403</v>
+        <v>44300</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44400</v>
+        <v>44298</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44294</v>
+        <v>44403</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44301</v>
+        <v>44377</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44377</v>
+        <v>44305</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44382</v>
+        <v>44413</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44385</v>
+        <v>44445</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44300</v>
+        <v>44307</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N19" t="n">
         <v>22000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44298</v>
+        <v>44301</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="N20" t="n">
         <v>22000</v>
